--- a/3- • Descriptive Statistics Using Excel.xlsx
+++ b/3- • Descriptive Statistics Using Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Stat using Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC523EB4-0D7C-4992-A349-400E8A28009A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA8414A-0868-410B-8B4F-931AEAA399EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1D3784C8-C38F-429D-ACD9-57518825F163}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="71">
   <si>
     <t>Full Name</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>Smallest(2)</t>
-  </si>
-  <si>
-    <t>Confidence Level(95.0%)</t>
   </si>
 </sst>
 </file>
@@ -644,7 +641,7 @@
   <dimension ref="A2:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,6 +652,8 @@
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1176,10 +1175,6 @@
       <c r="F22" s="2">
         <v>9</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1200,8 +1195,6 @@
       <c r="F23" s="2">
         <v>8.6</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -1222,12 +1215,6 @@
       <c r="F24" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="3">
-        <v>85.208333333333329</v>
-      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -1248,12 +1235,6 @@
       <c r="F25" s="2">
         <v>7.5</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0.598538817582559</v>
-      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -1274,12 +1255,6 @@
       <c r="F26" s="2">
         <v>8.9</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="3">
-        <v>86</v>
-      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -1300,12 +1275,6 @@
       <c r="F27" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="3">
-        <v>75</v>
-      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -1326,12 +1295,6 @@
       <c r="F28" s="2">
         <v>9.1</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="3">
-        <v>6.5566642386487466</v>
-      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -1352,12 +1315,6 @@
       <c r="F29" s="2">
         <v>7.8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="3">
-        <v>42.989845938375346</v>
-      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -1378,12 +1335,6 @@
       <c r="F30" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="3">
-        <v>-1.2433184619319702</v>
-      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
@@ -1404,12 +1355,6 @@
       <c r="F31" s="2">
         <v>9.5</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" s="3">
-        <v>-0.28576284575986094</v>
-      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
@@ -1430,14 +1375,8 @@
       <c r="F32" s="2">
         <v>8</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -1456,14 +1395,8 @@
       <c r="F33" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -1482,14 +1415,8 @@
       <c r="F34" s="2">
         <v>7.7</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J34" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -1508,14 +1435,8 @@
       <c r="F35" s="2">
         <v>8.5</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J35" s="3">
-        <v>10225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -1534,14 +1455,8 @@
       <c r="F36" s="2">
         <v>9</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J36" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -1560,14 +1475,8 @@
       <c r="F37" s="2">
         <v>7.8</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J37" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -1586,14 +1495,8 @@
       <c r="F38" s="2">
         <v>8.4</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J38" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -1612,14 +1515,8 @@
       <c r="F39" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J39" s="3">
-        <v>1.1851666387499096</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -1639,7 +1536,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -1659,7 +1556,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -1679,7 +1576,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -1699,7 +1596,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -1719,7 +1616,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -1739,7 +1636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -1759,7 +1656,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -1779,7 +1676,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>46</v>
       </c>
